--- a/StockScreen.xlsx
+++ b/StockScreen.xlsx
@@ -362,7 +362,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13-Apr-20</t>
+          <t>19-Apr-20</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -458,22 +458,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>267.99</t>
+          <t>286.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>1.07%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.3263</t>
+          <t>1.0806</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21.70</t>
+          <t>22.45</t>
         </is>
       </c>
     </row>
@@ -485,12 +485,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2,185.95</t>
+          <t>2,461.00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2,042.76</t>
+          <t>2,408.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -500,12 +500,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.5822</t>
+          <t>0.6137</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>103.22</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,211.45</t>
+          <t>1,263.47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -532,12 +532,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.9861</t>
+          <t>1.5115</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>24.77</t>
+          <t>26.10</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -569,22 +569,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>165.14</t>
+          <t>177.04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.24%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.6175</t>
+          <t>0.4277</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>28.83</t>
+          <t>31.11</t>
         </is>
       </c>
     </row>
@@ -601,22 +601,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>262.95</t>
+          <t>294.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.1250</t>
+          <t>0.5077</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>59.70</t>
+          <t>64.67</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>196.37</t>
+          <t>212.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.5545</t>
+          <t>3.5832</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>57.03</t>
+          <t>59.91</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>175.19</t>
+          <t>176.25</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.8420</t>
+          <t>1.0501</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>27.18</t>
+          <t>27.88</t>
         </is>
       </c>
     </row>
